--- a/project/Result_Comparaison_BO/Comparaison_BO_Du_2022-08-26.xlsx
+++ b/project/Result_Comparaison_BO/Comparaison_BO_Du_2022-08-26.xlsx
@@ -32,17 +32,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -63,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -533,13 +527,13 @@
       <c r="I2" t="n">
         <v>93067</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="n">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -571,13 +565,13 @@
       <c r="I3" t="n">
         <v>126897</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -609,13 +603,13 @@
       <c r="I4" t="n">
         <v>303982</v>
       </c>
-      <c r="J4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -647,13 +641,13 @@
       <c r="I5" t="n">
         <v>151256</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -685,13 +679,13 @@
       <c r="I6" t="n">
         <v>156603</v>
       </c>
-      <c r="J6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,13 +717,13 @@
       <c r="I7" t="n">
         <v>138512</v>
       </c>
-      <c r="J7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,13 +755,13 @@
       <c r="I8" t="n">
         <v>102165</v>
       </c>
-      <c r="J8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -799,13 +793,13 @@
       <c r="I9" t="n">
         <v>84132</v>
       </c>
-      <c r="J9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -837,13 +831,13 @@
       <c r="I10" t="n">
         <v>91227</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -875,13 +869,13 @@
       <c r="I11" t="n">
         <v>161693</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -913,13 +907,13 @@
       <c r="I12" t="n">
         <v>85193</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -951,13 +945,13 @@
       <c r="I13" t="n">
         <v>150951</v>
       </c>
-      <c r="J13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -989,13 +983,13 @@
       <c r="I14" t="n">
         <v>108366</v>
       </c>
-      <c r="J14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1027,13 +1021,13 @@
       <c r="I15" t="n">
         <v>64193</v>
       </c>
-      <c r="J15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,13 +1059,13 @@
       <c r="I16" t="n">
         <v>67767</v>
       </c>
-      <c r="J16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1103,13 +1097,13 @@
       <c r="I17" t="n">
         <v>67445</v>
       </c>
-      <c r="J17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1141,13 +1135,13 @@
       <c r="I18" t="n">
         <v>131396</v>
       </c>
-      <c r="J18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1179,13 +1173,13 @@
       <c r="I19" t="n">
         <v>71992</v>
       </c>
-      <c r="J19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,13 +1211,13 @@
       <c r="I20" t="n">
         <v>71841</v>
       </c>
-      <c r="J20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1255,13 +1249,13 @@
       <c r="I21" t="n">
         <v>68514</v>
       </c>
-      <c r="J21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1293,13 +1287,13 @@
       <c r="I22" t="n">
         <v>45625</v>
       </c>
-      <c r="J22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1331,13 +1325,13 @@
       <c r="I23" t="n">
         <v>58732</v>
       </c>
-      <c r="J23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1369,13 +1363,13 @@
       <c r="I24" t="n">
         <v>52334</v>
       </c>
-      <c r="J24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,13 +1401,13 @@
       <c r="I25" t="n">
         <v>117051</v>
       </c>
-      <c r="J25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1445,13 +1439,13 @@
       <c r="I26" t="n">
         <v>62301</v>
       </c>
-      <c r="J26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1483,13 +1477,13 @@
       <c r="I27" t="n">
         <v>66475</v>
       </c>
-      <c r="J27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1521,13 +1515,13 @@
       <c r="I28" t="n">
         <v>67926</v>
       </c>
-      <c r="J28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1559,13 +1553,13 @@
       <c r="I29" t="n">
         <v>48624</v>
       </c>
-      <c r="J29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1597,13 +1591,13 @@
       <c r="I30" t="n">
         <v>68948</v>
       </c>
-      <c r="J30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1635,13 +1629,13 @@
       <c r="I31" t="n">
         <v>62377</v>
       </c>
-      <c r="J31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1673,13 +1667,13 @@
       <c r="I32" t="n">
         <v>159443</v>
       </c>
-      <c r="J32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,13 +1705,13 @@
       <c r="I33" t="n">
         <v>123848</v>
       </c>
-      <c r="J33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1749,13 +1743,13 @@
       <c r="I34" t="n">
         <v>161628</v>
       </c>
-      <c r="J34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1787,13 +1781,13 @@
       <c r="I35" t="n">
         <v>170318</v>
       </c>
-      <c r="J35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1825,13 +1819,13 @@
       <c r="I36" t="n">
         <v>101208</v>
       </c>
-      <c r="J36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1863,13 +1857,13 @@
       <c r="I37" t="n">
         <v>97208</v>
       </c>
-      <c r="J37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1901,13 +1895,13 @@
       <c r="I38" t="n">
         <v>98604</v>
       </c>
-      <c r="J38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1939,13 +1933,13 @@
       <c r="I39" t="n">
         <v>201738</v>
       </c>
-      <c r="J39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1977,13 +1971,13 @@
       <c r="I40" t="n">
         <v>124230</v>
       </c>
-      <c r="J40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2015,13 +2009,13 @@
       <c r="I41" t="n">
         <v>128136</v>
       </c>
-      <c r="J41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2053,13 +2047,13 @@
       <c r="I42" t="n">
         <v>110926</v>
       </c>
-      <c r="J42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2091,13 +2085,13 @@
       <c r="I43" t="n">
         <v>82587</v>
       </c>
-      <c r="J43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2129,13 +2123,13 @@
       <c r="I44" t="n">
         <v>108054</v>
       </c>
-      <c r="J44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2167,13 +2161,13 @@
       <c r="I45" t="n">
         <v>138997</v>
       </c>
-      <c r="J45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,13 +2199,13 @@
       <c r="I46" t="n">
         <v>283102</v>
       </c>
-      <c r="J46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2243,13 +2237,13 @@
       <c r="I47" t="n">
         <v>133306</v>
       </c>
-      <c r="J47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2281,13 +2275,13 @@
       <c r="I48" t="n">
         <v>104204</v>
       </c>
-      <c r="J48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2319,13 +2313,13 @@
       <c r="I49" t="n">
         <v>98572</v>
       </c>
-      <c r="J49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2357,13 +2351,13 @@
       <c r="I50" t="n">
         <v>62462</v>
       </c>
-      <c r="J50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2395,13 +2389,13 @@
       <c r="I51" t="n">
         <v>61890</v>
       </c>
-      <c r="J51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="3" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2433,13 +2427,13 @@
       <c r="I52" t="n">
         <v>68750</v>
       </c>
-      <c r="J52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2471,13 +2465,13 @@
       <c r="I53" t="n">
         <v>148398</v>
       </c>
-      <c r="J53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="3" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2509,13 +2503,13 @@
       <c r="I54" t="n">
         <v>91374</v>
       </c>
-      <c r="J54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2547,13 +2541,13 @@
       <c r="I55" t="n">
         <v>87381</v>
       </c>
-      <c r="J55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="3" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2585,13 +2579,13 @@
       <c r="I56" t="n">
         <v>72281</v>
       </c>
-      <c r="J56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="3" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2623,13 +2617,13 @@
       <c r="I57" t="n">
         <v>59038</v>
       </c>
-      <c r="J57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2661,13 +2655,13 @@
       <c r="I58" t="n">
         <v>68582</v>
       </c>
-      <c r="J58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,13 +2693,13 @@
       <c r="I59" t="n">
         <v>60207</v>
       </c>
-      <c r="J59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2737,13 +2731,13 @@
       <c r="I60" t="n">
         <v>157905</v>
       </c>
-      <c r="J60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2775,13 +2769,13 @@
       <c r="I61" t="n">
         <v>135349</v>
       </c>
-      <c r="J61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2813,13 +2807,13 @@
       <c r="I62" t="n">
         <v>152029</v>
       </c>
-      <c r="J62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2851,13 +2845,13 @@
       <c r="I63" t="n">
         <v>133088</v>
       </c>
-      <c r="J63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" s="3" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2889,13 +2883,13 @@
       <c r="I64" t="n">
         <v>104715</v>
       </c>
-      <c r="J64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2927,13 +2921,13 @@
       <c r="I65" t="n">
         <v>117931</v>
       </c>
-      <c r="J65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" s="3" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2965,13 +2959,13 @@
       <c r="I66" t="n">
         <v>99846</v>
       </c>
-      <c r="J66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3003,13 +2997,13 @@
       <c r="I67" t="n">
         <v>243637</v>
       </c>
-      <c r="J67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" s="3" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3041,13 +3035,13 @@
       <c r="I68" t="n">
         <v>138747</v>
       </c>
-      <c r="J68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" s="3" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3079,13 +3073,13 @@
       <c r="I69" t="n">
         <v>152142</v>
       </c>
-      <c r="J69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="3" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3117,13 +3111,13 @@
       <c r="I70" t="n">
         <v>128168</v>
       </c>
-      <c r="J70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3155,13 +3149,13 @@
       <c r="I71" t="n">
         <v>90425</v>
       </c>
-      <c r="J71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" s="3" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,13 +3187,13 @@
       <c r="I72" t="n">
         <v>87379</v>
       </c>
-      <c r="J72" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3231,13 +3225,13 @@
       <c r="I73" t="n">
         <v>96534</v>
       </c>
-      <c r="J73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" s="3" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3269,13 +3263,13 @@
       <c r="I74" t="n">
         <v>173684</v>
       </c>
-      <c r="J74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" s="3" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3307,13 +3301,13 @@
       <c r="I75" t="n">
         <v>125385</v>
       </c>
-      <c r="J75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" s="3" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3345,13 +3339,13 @@
       <c r="I76" t="n">
         <v>162190</v>
       </c>
-      <c r="J76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3383,13 +3377,13 @@
       <c r="I77" t="n">
         <v>167302</v>
       </c>
-      <c r="J77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" s="3" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3421,13 +3415,13 @@
       <c r="I78" t="n">
         <v>86114</v>
       </c>
-      <c r="J78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" s="3" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3459,13 +3453,13 @@
       <c r="I79" t="n">
         <v>80519</v>
       </c>
-      <c r="J79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" s="3" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3497,13 +3491,13 @@
       <c r="I80" t="n">
         <v>76835</v>
       </c>
-      <c r="J80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" s="3" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3535,13 +3529,13 @@
       <c r="I81" t="n">
         <v>159610</v>
       </c>
-      <c r="J81" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3573,13 +3567,13 @@
       <c r="I82" t="n">
         <v>97480</v>
       </c>
-      <c r="J82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" s="3" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3611,13 +3605,13 @@
       <c r="I83" t="n">
         <v>84942</v>
       </c>
-      <c r="J83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3649,13 +3643,13 @@
       <c r="I84" t="n">
         <v>83756</v>
       </c>
-      <c r="J84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,13 +3681,13 @@
       <c r="I85" t="n">
         <v>60077</v>
       </c>
-      <c r="J85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" s="3" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3725,13 +3719,13 @@
       <c r="I86" t="n">
         <v>64739</v>
       </c>
-      <c r="J86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" s="3" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3763,13 +3757,13 @@
       <c r="I87" t="n">
         <v>65132</v>
       </c>
-      <c r="J87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" s="3" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3801,13 +3795,13 @@
       <c r="I88" t="n">
         <v>139724</v>
       </c>
-      <c r="J88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" s="3" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3839,13 +3833,13 @@
       <c r="I89" t="n">
         <v>97705</v>
       </c>
-      <c r="J89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3877,13 +3871,13 @@
       <c r="I90" t="n">
         <v>92964</v>
       </c>
-      <c r="J90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" s="3" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3915,13 +3909,13 @@
       <c r="I91" t="n">
         <v>105145</v>
       </c>
-      <c r="J91" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3953,13 +3947,13 @@
       <c r="I92" t="n">
         <v>94670</v>
       </c>
-      <c r="J92" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" s="3" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3991,13 +3985,13 @@
       <c r="I93" t="n">
         <v>104990</v>
       </c>
-      <c r="J93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" s="3" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4029,13 +4023,13 @@
       <c r="I94" t="n">
         <v>69308</v>
       </c>
-      <c r="J94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4067,13 +4061,13 @@
       <c r="I95" t="n">
         <v>191170</v>
       </c>
-      <c r="J95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" s="3" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4105,13 +4099,13 @@
       <c r="I96" t="n">
         <v>124422</v>
       </c>
-      <c r="J96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4143,13 +4137,13 @@
       <c r="I97" t="n">
         <v>144552</v>
       </c>
-      <c r="J97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" s="3" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4181,13 +4175,13 @@
       <c r="I98" t="n">
         <v>133634</v>
       </c>
-      <c r="J98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" s="3" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4219,13 +4213,13 @@
       <c r="I99" t="n">
         <v>91321</v>
       </c>
-      <c r="J99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" s="3" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4257,13 +4251,13 @@
       <c r="I100" t="n">
         <v>100238</v>
       </c>
-      <c r="J100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4295,13 +4289,13 @@
       <c r="I101" t="n">
         <v>99695</v>
       </c>
-      <c r="J101" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4333,13 +4327,13 @@
       <c r="I102" t="n">
         <v>191624</v>
       </c>
-      <c r="J102" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4371,13 +4365,13 @@
       <c r="I103" t="n">
         <v>129593</v>
       </c>
-      <c r="J103" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" s="3" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4409,13 +4403,13 @@
       <c r="I104" t="n">
         <v>126135</v>
       </c>
-      <c r="J104" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" s="3" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4447,13 +4441,13 @@
       <c r="I105" t="n">
         <v>104995</v>
       </c>
-      <c r="J105" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" s="3" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4485,13 +4479,13 @@
       <c r="I106" t="n">
         <v>79309</v>
       </c>
-      <c r="J106" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" s="3" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4523,13 +4517,13 @@
       <c r="I107" t="n">
         <v>76752</v>
       </c>
-      <c r="J107" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" s="3" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4561,13 +4555,13 @@
       <c r="I108" t="n">
         <v>91103</v>
       </c>
-      <c r="J108" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" s="3" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4599,13 +4593,13 @@
       <c r="I109" t="n">
         <v>172638</v>
       </c>
-      <c r="J109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" s="3" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4637,13 +4631,13 @@
       <c r="I110" t="n">
         <v>105167</v>
       </c>
-      <c r="J110" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" s="3" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4675,13 +4669,13 @@
       <c r="I111" t="n">
         <v>95744</v>
       </c>
-      <c r="J111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" s="3" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4713,13 +4707,13 @@
       <c r="I112" t="n">
         <v>92540</v>
       </c>
-      <c r="J112" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" s="3" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4751,13 +4745,13 @@
       <c r="I113" t="n">
         <v>62874</v>
       </c>
-      <c r="J113" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" s="3" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4789,13 +4783,13 @@
       <c r="I114" t="n">
         <v>61750</v>
       </c>
-      <c r="J114" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" s="3" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4827,13 +4821,13 @@
       <c r="I115" t="n">
         <v>58981</v>
       </c>
-      <c r="J115" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" s="3" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4865,13 +4859,13 @@
       <c r="I116" t="n">
         <v>130354</v>
       </c>
-      <c r="J116" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" s="3" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4903,13 +4897,13 @@
       <c r="I117" t="n">
         <v>75844</v>
       </c>
-      <c r="J117" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" s="3" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4941,13 +4935,13 @@
       <c r="I118" t="n">
         <v>77770</v>
       </c>
-      <c r="J118" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" s="3" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4979,13 +4973,13 @@
       <c r="I119" t="n">
         <v>69144</v>
       </c>
-      <c r="J119" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" s="3" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5017,13 +5011,13 @@
       <c r="I120" t="n">
         <v>61208</v>
       </c>
-      <c r="J120" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" s="3" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5055,13 +5049,13 @@
       <c r="I121" t="n">
         <v>66180</v>
       </c>
-      <c r="J121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" s="3" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5093,13 +5087,13 @@
       <c r="I122" t="n">
         <v>37580</v>
       </c>
-      <c r="J122" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" s="3" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5131,13 +5125,13 @@
       <c r="I123" t="n">
         <v>29706</v>
       </c>
-      <c r="J123" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" s="3" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5169,13 +5163,13 @@
       <c r="I124" t="n">
         <v>111249</v>
       </c>
-      <c r="J124" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" s="3" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5207,13 +5201,13 @@
       <c r="I125" t="n">
         <v>188624</v>
       </c>
-      <c r="J125" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" s="3" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5245,13 +5239,13 @@
       <c r="I126" t="n">
         <v>157925</v>
       </c>
-      <c r="J126" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" s="3" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5283,13 +5277,13 @@
       <c r="I127" t="n">
         <v>131285</v>
       </c>
-      <c r="J127" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" s="3" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5321,13 +5315,13 @@
       <c r="I128" t="n">
         <v>115924</v>
       </c>
-      <c r="J128" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" s="3" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5359,13 +5353,13 @@
       <c r="I129" t="n">
         <v>117702</v>
       </c>
-      <c r="J129" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" s="3" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5397,13 +5391,13 @@
       <c r="I130" t="n">
         <v>188989</v>
       </c>
-      <c r="J130" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" s="3" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5435,13 +5429,13 @@
       <c r="I131" t="n">
         <v>160007</v>
       </c>
-      <c r="J131" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" s="3" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5473,13 +5467,13 @@
       <c r="I132" t="n">
         <v>153706</v>
       </c>
-      <c r="J132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" s="3" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5511,13 +5505,13 @@
       <c r="I133" t="n">
         <v>129763</v>
       </c>
-      <c r="J133" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" s="3" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5549,13 +5543,13 @@
       <c r="I134" t="n">
         <v>96974</v>
       </c>
-      <c r="J134" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" s="3" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5587,13 +5581,13 @@
       <c r="I135" t="n">
         <v>86045</v>
       </c>
-      <c r="J135" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" s="3" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5625,13 +5619,13 @@
       <c r="I136" t="n">
         <v>89795</v>
       </c>
-      <c r="J136" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" s="3" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,13 +5657,13 @@
       <c r="I137" t="n">
         <v>162082</v>
       </c>
-      <c r="J137" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" s="3" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5701,13 +5695,13 @@
       <c r="I138" t="n">
         <v>121143</v>
       </c>
-      <c r="J138" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" s="3" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5739,13 +5733,13 @@
       <c r="I139" t="n">
         <v>137855</v>
       </c>
-      <c r="J139" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" s="3" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5777,13 +5771,13 @@
       <c r="I140" t="n">
         <v>117682</v>
       </c>
-      <c r="J140" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" s="3" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5815,13 +5809,13 @@
       <c r="I141" t="n">
         <v>78122</v>
       </c>
-      <c r="J141" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" s="3" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5853,13 +5847,13 @@
       <c r="I142" t="n">
         <v>68456</v>
       </c>
-      <c r="J142" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" s="3" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5891,13 +5885,13 @@
       <c r="I143" t="n">
         <v>65656</v>
       </c>
-      <c r="J143" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" s="3" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5929,13 +5923,13 @@
       <c r="I144" t="n">
         <v>142668</v>
       </c>
-      <c r="J144" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" s="3" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5967,13 +5961,13 @@
       <c r="I145" t="n">
         <v>77561</v>
       </c>
-      <c r="J145" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" s="3" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6005,13 +5999,13 @@
       <c r="I146" t="n">
         <v>90894</v>
       </c>
-      <c r="J146" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" s="3" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6043,13 +6037,13 @@
       <c r="I147" t="n">
         <v>81168</v>
       </c>
-      <c r="J147" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" s="3" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6081,13 +6075,13 @@
       <c r="I148" t="n">
         <v>56484</v>
       </c>
-      <c r="J148" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" s="3" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6119,13 +6113,13 @@
       <c r="I149" t="n">
         <v>65689</v>
       </c>
-      <c r="J149" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" s="3" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6157,13 +6151,13 @@
       <c r="I150" t="n">
         <v>58828</v>
       </c>
-      <c r="J150" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" s="3" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6195,13 +6189,13 @@
       <c r="I151" t="n">
         <v>120245</v>
       </c>
-      <c r="J151" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" s="3" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6233,13 +6227,13 @@
       <c r="I152" t="n">
         <v>97359</v>
       </c>
-      <c r="J152" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" s="3" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6271,13 +6265,13 @@
       <c r="I153" t="n">
         <v>89075</v>
       </c>
-      <c r="J153" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" s="3" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6309,13 +6303,13 @@
       <c r="I154" t="n">
         <v>92918</v>
       </c>
-      <c r="J154" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L154" s="3" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6347,13 +6341,13 @@
       <c r="I155" t="n">
         <v>96581</v>
       </c>
-      <c r="J155" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" s="3" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6385,13 +6379,13 @@
       <c r="I156" t="n">
         <v>109381</v>
       </c>
-      <c r="J156" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" s="3" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6423,13 +6417,13 @@
       <c r="I157" t="n">
         <v>92428</v>
       </c>
-      <c r="J157" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L157" s="3" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6461,13 +6455,13 @@
       <c r="I158" t="n">
         <v>182687</v>
       </c>
-      <c r="J158" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" s="3" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6499,13 +6493,13 @@
       <c r="I159" t="n">
         <v>136835</v>
       </c>
-      <c r="J159" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L159" s="3" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6537,13 +6531,13 @@
       <c r="I160" t="n">
         <v>139942</v>
       </c>
-      <c r="J160" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L160" s="3" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6575,13 +6569,13 @@
       <c r="I161" t="n">
         <v>148620</v>
       </c>
-      <c r="J161" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L161" s="3" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6613,13 +6607,13 @@
       <c r="I162" t="n">
         <v>99072</v>
       </c>
-      <c r="J162" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" s="3" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6651,13 +6645,13 @@
       <c r="I163" t="n">
         <v>99313</v>
       </c>
-      <c r="J163" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" s="3" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6689,13 +6683,13 @@
       <c r="I164" t="n">
         <v>102107</v>
       </c>
-      <c r="J164" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" s="3" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6727,13 +6721,13 @@
       <c r="I165" t="n">
         <v>165841</v>
       </c>
-      <c r="J165" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K165" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L165" s="3" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6765,13 +6759,13 @@
       <c r="I166" t="n">
         <v>106993</v>
       </c>
-      <c r="J166" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K166" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" s="3" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6803,13 +6797,13 @@
       <c r="I167" t="n">
         <v>92246</v>
       </c>
-      <c r="J167" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K167" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L167" s="3" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6841,13 +6835,13 @@
       <c r="I168" t="n">
         <v>90478</v>
       </c>
-      <c r="J168" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K168" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" s="3" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6879,13 +6873,13 @@
       <c r="I169" t="n">
         <v>68983</v>
       </c>
-      <c r="J169" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" s="3" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6917,13 +6911,13 @@
       <c r="I170" t="n">
         <v>65966</v>
       </c>
-      <c r="J170" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K170" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L170" s="3" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6955,13 +6949,13 @@
       <c r="I171" t="n">
         <v>69595</v>
       </c>
-      <c r="J171" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K171" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171" s="3" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6993,13 +6987,13 @@
       <c r="I172" t="n">
         <v>123302</v>
       </c>
-      <c r="J172" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K172" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L172" s="3" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7031,13 +7025,13 @@
       <c r="I173" t="n">
         <v>78865</v>
       </c>
-      <c r="J173" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" s="3" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7069,13 +7063,13 @@
       <c r="I174" t="n">
         <v>76563</v>
       </c>
-      <c r="J174" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L174" s="3" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7107,13 +7101,13 @@
       <c r="I175" t="n">
         <v>78998</v>
       </c>
-      <c r="J175" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" s="3" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7145,13 +7139,13 @@
       <c r="I176" t="n">
         <v>59215</v>
       </c>
-      <c r="J176" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L176" s="3" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7183,13 +7177,13 @@
       <c r="I177" t="n">
         <v>48562</v>
       </c>
-      <c r="J177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L177" s="3" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7221,13 +7215,13 @@
       <c r="I178" t="n">
         <v>46663</v>
       </c>
-      <c r="J178" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K178" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L178" s="3" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7259,13 +7253,13 @@
       <c r="I179" t="n">
         <v>111127</v>
       </c>
-      <c r="J179" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K179" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L179" s="3" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7297,13 +7291,13 @@
       <c r="I180" t="n">
         <v>74399</v>
       </c>
-      <c r="J180" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K180" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L180" s="3" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7335,13 +7329,13 @@
       <c r="I181" t="n">
         <v>71414</v>
       </c>
-      <c r="J181" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K181" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L181" s="3" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7373,13 +7367,13 @@
       <c r="I182" t="n">
         <v>89738</v>
       </c>
-      <c r="J182" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K182" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L182" s="3" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7411,13 +7405,13 @@
       <c r="I183" t="n">
         <v>69874</v>
       </c>
-      <c r="J183" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K183" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L183" s="3" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7449,13 +7443,13 @@
       <c r="I184" t="n">
         <v>72035</v>
       </c>
-      <c r="J184" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K184" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L184" s="3" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7487,13 +7481,13 @@
       <c r="I185" t="n">
         <v>53668</v>
       </c>
-      <c r="J185" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K185" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L185" s="3" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7525,13 +7519,13 @@
       <c r="I186" t="n">
         <v>138667</v>
       </c>
-      <c r="J186" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K186" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L186" s="3" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7563,13 +7557,13 @@
       <c r="I187" t="n">
         <v>104218</v>
       </c>
-      <c r="J187" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K187" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L187" s="3" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7601,13 +7595,13 @@
       <c r="I188" t="n">
         <v>114336</v>
       </c>
-      <c r="J188" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K188" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L188" s="3" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7639,13 +7633,13 @@
       <c r="I189" t="n">
         <v>105956</v>
       </c>
-      <c r="J189" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K189" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L189" s="3" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7677,13 +7671,13 @@
       <c r="I190" t="n">
         <v>67592</v>
       </c>
-      <c r="J190" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K190" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L190" s="3" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7715,13 +7709,13 @@
       <c r="I191" t="n">
         <v>37843</v>
       </c>
-      <c r="J191" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K191" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L191" s="3" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7753,13 +7747,13 @@
       <c r="I192" t="n">
         <v>1510</v>
       </c>
-      <c r="J192" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K192" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L192" s="3" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7791,13 +7785,13 @@
       <c r="I193" t="n">
         <v>26557</v>
       </c>
-      <c r="J193" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K193" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L193" s="3" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7829,13 +7823,13 @@
       <c r="I194" t="n">
         <v>94812</v>
       </c>
-      <c r="J194" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K194" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" s="3" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7867,13 +7861,13 @@
       <c r="I195" t="n">
         <v>84315</v>
       </c>
-      <c r="J195" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K195" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" s="3" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7905,13 +7899,13 @@
       <c r="I196" t="n">
         <v>94331</v>
       </c>
-      <c r="J196" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K196" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L196" s="3" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7943,13 +7937,13 @@
       <c r="I197" t="n">
         <v>62004</v>
       </c>
-      <c r="J197" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K197" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L197" s="3" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7981,13 +7975,13 @@
       <c r="I198" t="n">
         <v>51090</v>
       </c>
-      <c r="J198" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K198" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L198" s="3" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8019,13 +8013,13 @@
       <c r="I199" t="n">
         <v>48242</v>
       </c>
-      <c r="J199" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K199" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L199" s="3" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8057,13 +8051,13 @@
       <c r="I200" t="n">
         <v>104488</v>
       </c>
-      <c r="J200" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K200" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L200" s="3" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8095,13 +8089,13 @@
       <c r="I201" t="n">
         <v>87805</v>
       </c>
-      <c r="J201" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K201" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L201" s="3" t="n">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8133,13 +8127,13 @@
       <c r="I202" t="n">
         <v>80434</v>
       </c>
-      <c r="J202" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K202" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L202" s="3" t="n">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8171,13 +8165,13 @@
       <c r="I203" t="n">
         <v>72893</v>
       </c>
-      <c r="J203" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K203" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L203" s="3" t="n">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8209,13 +8203,13 @@
       <c r="I204" t="n">
         <v>57730</v>
       </c>
-      <c r="J204" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K204" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L204" s="3" t="n">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8247,13 +8241,13 @@
       <c r="I205" t="n">
         <v>50367</v>
       </c>
-      <c r="J205" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K205" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L205" s="3" t="n">
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8285,13 +8279,13 @@
       <c r="I206" t="n">
         <v>52323</v>
       </c>
-      <c r="J206" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K206" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L206" s="3" t="n">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8323,13 +8317,13 @@
       <c r="I207" t="n">
         <v>114587</v>
       </c>
-      <c r="J207" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K207" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L207" s="3" t="n">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8361,13 +8355,13 @@
       <c r="I208" t="n">
         <v>69871</v>
       </c>
-      <c r="J208" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K208" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L208" s="3" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8399,13 +8393,13 @@
       <c r="I209" t="n">
         <v>67688</v>
       </c>
-      <c r="J209" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K209" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L209" s="3" t="n">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8437,13 +8431,13 @@
       <c r="I210" t="n">
         <v>64728</v>
       </c>
-      <c r="J210" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K210" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L210" s="3" t="n">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8475,13 +8469,13 @@
       <c r="I211" t="n">
         <v>55477</v>
       </c>
-      <c r="J211" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K211" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L211" s="3" t="n">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8513,13 +8507,13 @@
       <c r="I212" t="n">
         <v>63856</v>
       </c>
-      <c r="J212" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K212" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L212" s="3" t="n">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8551,13 +8545,13 @@
       <c r="I213" t="n">
         <v>59199</v>
       </c>
-      <c r="J213" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K213" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L213" s="3" t="n">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8589,13 +8583,13 @@
       <c r="I214" t="n">
         <v>122608</v>
       </c>
-      <c r="J214" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K214" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L214" s="3" t="n">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8627,13 +8621,13 @@
       <c r="I215" t="n">
         <v>83074</v>
       </c>
-      <c r="J215" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K215" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L215" s="3" t="n">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8665,13 +8659,13 @@
       <c r="I216" t="n">
         <v>74949</v>
       </c>
-      <c r="J216" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K216" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L216" s="3" t="n">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8703,13 +8697,13 @@
       <c r="I217" t="n">
         <v>76522</v>
       </c>
-      <c r="J217" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K217" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L217" s="3" t="n">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8741,13 +8735,13 @@
       <c r="I218" t="n">
         <v>58738</v>
       </c>
-      <c r="J218" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K218" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L218" s="3" t="n">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8779,13 +8773,13 @@
       <c r="I219" t="n">
         <v>61152</v>
       </c>
-      <c r="J219" s="3" t="n">
+      <c r="J219" t="n">
         <v>-644</v>
       </c>
-      <c r="K219" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L219" s="3" t="n">
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8817,13 +8811,13 @@
       <c r="I220" t="n">
         <v>68905</v>
       </c>
-      <c r="J220" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K220" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L220" s="3" t="n">
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8855,13 +8849,13 @@
       <c r="I221" t="n">
         <v>101592</v>
       </c>
-      <c r="J221" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K221" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L221" s="3" t="n">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8893,13 +8887,13 @@
       <c r="I222" t="n">
         <v>74462</v>
       </c>
-      <c r="J222" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K222" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L222" s="3" t="n">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
         <v>0</v>
       </c>
     </row>
